--- a/results/Num_PCA_results.xlsx
+++ b/results/Num_PCA_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larry\Desktop\Research\SSF Transformer\transformer\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E62911E-B13A-4B70-9FBC-15E0BC4DF2F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B453FE35-3187-46FC-BC84-A3E212ED6012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="4155" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Num_PC</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Transformer</t>
+  </si>
+  <si>
+    <t>0 (Just temperature)</t>
+  </si>
+  <si>
+    <t>0 (Temperature + rhub + hgt etc.)</t>
   </si>
 </sst>
 </file>
@@ -2504,16 +2510,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2804,10 +2810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,9 +2822,10 @@
     <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2832,7 +2839,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2861,7 +2868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2890,7 +2897,7 @@
         <v>0.98309625</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2918,8 +2925,14 @@
       <c r="I4" s="1">
         <v>0.97464445</v>
       </c>
+      <c r="N4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -2947,8 +2960,23 @@
       <c r="I5" s="1">
         <v>0.99029268999999998</v>
       </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -2976,8 +3004,23 @@
       <c r="I6" s="1">
         <v>0.98705843999999998</v>
       </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>0.8</v>
+      </c>
+      <c r="O6">
+        <v>0.82</v>
+      </c>
+      <c r="P6">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.98699999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -3005,8 +3048,23 @@
       <c r="I7" s="1">
         <v>0.97653723999999997</v>
       </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>0.9</v>
+      </c>
+      <c r="O7">
+        <v>0.72</v>
+      </c>
+      <c r="P7">
+        <v>0.99</v>
+      </c>
+      <c r="Q7">
+        <v>0.99</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200</v>
       </c>
@@ -3034,8 +3092,23 @@
       <c r="I8" s="1">
         <v>0.97878023999999997</v>
       </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.88195504880858699</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.72751991662805404</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.99365579999999998</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.98309625</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>400</v>
       </c>
@@ -3063,11 +3136,112 @@
       <c r="I9" s="1">
         <v>0.98538778999999999</v>
       </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.94326484399407395</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.57187014243228795</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.99721976999999995</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.97464445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.93822892884005804</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.84075858027910999</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.99723596000000003</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.99029268999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.96440304855938597</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.78793277669699202</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.99806368999999995</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.98705843999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.97260605821108703</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.58693196196434105</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.9985117</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.97653723999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>200</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.97064512050107599</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.61542551389049005</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.99868387000000003</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.97878023999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>400</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.90661878709981503</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.70384930337090401</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.99684086000000005</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.98538778999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
